--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>157.483439497743</v>
+        <v>0.3800063333333333</v>
       </c>
       <c r="H2">
-        <v>157.483439497743</v>
+        <v>1.140019</v>
       </c>
       <c r="I2">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678962</v>
       </c>
       <c r="J2">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678963</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N2">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P2">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q2">
-        <v>10044.6133239931</v>
+        <v>24.40456039589433</v>
       </c>
       <c r="R2">
-        <v>10044.6133239931</v>
+        <v>219.641043563049</v>
       </c>
       <c r="S2">
-        <v>0.8343735976918621</v>
+        <v>0.001977281671478503</v>
       </c>
       <c r="T2">
-        <v>0.8343735976918621</v>
+        <v>0.001977281671478503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>157.483439497743</v>
+        <v>0.3800063333333333</v>
       </c>
       <c r="H3">
-        <v>157.483439497743</v>
+        <v>1.140019</v>
       </c>
       <c r="I3">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678962</v>
       </c>
       <c r="J3">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N3">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P3">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q3">
-        <v>1617.434603867245</v>
+        <v>4.021431082734333</v>
       </c>
       <c r="R3">
-        <v>1617.434603867245</v>
+        <v>36.19287974460899</v>
       </c>
       <c r="S3">
-        <v>0.1343550703177822</v>
+        <v>0.0003258203321024482</v>
       </c>
       <c r="T3">
-        <v>0.1343550703177822</v>
+        <v>0.0003258203321024482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>157.483439497743</v>
+        <v>0.3800063333333333</v>
       </c>
       <c r="H4">
-        <v>157.483439497743</v>
+        <v>1.140019</v>
       </c>
       <c r="I4">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678962</v>
       </c>
       <c r="J4">
-        <v>0.9924108139151254</v>
+        <v>0.002363300787678963</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N4">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P4">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q4">
-        <v>285.0977055853508</v>
+        <v>0.7430023164988888</v>
       </c>
       <c r="R4">
-        <v>285.0977055853508</v>
+        <v>6.68702084849</v>
       </c>
       <c r="S4">
-        <v>0.02368214590548113</v>
+        <v>6.01987840980114E-05</v>
       </c>
       <c r="T4">
-        <v>0.02368214590548113</v>
+        <v>6.01987840980114E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.424361874672784</v>
+        <v>159.049647</v>
       </c>
       <c r="H5">
-        <v>0.424361874672784</v>
+        <v>477.148941</v>
       </c>
       <c r="I5">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288694</v>
       </c>
       <c r="J5">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288696</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N5">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P5">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q5">
-        <v>27.06666144787895</v>
+        <v>10214.40006567568</v>
       </c>
       <c r="R5">
-        <v>27.06666144787895</v>
+        <v>91929.60059108112</v>
       </c>
       <c r="S5">
-        <v>0.00224834017610511</v>
+        <v>0.8275808171659224</v>
       </c>
       <c r="T5">
-        <v>0.00224834017610511</v>
+        <v>0.8275808171659226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.424361874672784</v>
+        <v>159.049647</v>
       </c>
       <c r="H6">
-        <v>0.424361874672784</v>
+        <v>477.148941</v>
       </c>
       <c r="I6">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288694</v>
       </c>
       <c r="J6">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N6">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P6">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q6">
-        <v>4.358411162765929</v>
+        <v>1683.148774214439</v>
       </c>
       <c r="R6">
-        <v>4.358411162765929</v>
+        <v>15148.33896792995</v>
       </c>
       <c r="S6">
-        <v>0.0003620391432501376</v>
+        <v>0.1363703819137677</v>
       </c>
       <c r="T6">
-        <v>0.0003620391432501376</v>
+        <v>0.1363703819137677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.424361874672784</v>
+        <v>159.049647</v>
       </c>
       <c r="H7">
-        <v>0.424361874672784</v>
+        <v>477.148941</v>
       </c>
       <c r="I7">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288694</v>
       </c>
       <c r="J7">
-        <v>0.002674194282152452</v>
+        <v>0.9891470827288696</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.81033451196268</v>
+        <v>1.955236666666667</v>
       </c>
       <c r="N7">
-        <v>1.81033451196268</v>
+        <v>5.86571</v>
       </c>
       <c r="O7">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="P7">
-        <v>0.023863248539235</v>
+        <v>0.02547233276942866</v>
       </c>
       <c r="Q7">
-        <v>0.7682369472813224</v>
+        <v>310.97970163479</v>
       </c>
       <c r="R7">
-        <v>0.7682369472813224</v>
+        <v>2798.81731471311</v>
       </c>
       <c r="S7">
-        <v>6.381496279720509E-05</v>
+        <v>0.02519588364917934</v>
       </c>
       <c r="T7">
-        <v>6.381496279720509E-05</v>
+        <v>0.02519588364917934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.779948992234675</v>
+        <v>0.450387</v>
       </c>
       <c r="H8">
-        <v>0.779948992234675</v>
+        <v>1.351161</v>
       </c>
       <c r="I8">
-        <v>0.004914991802722144</v>
+        <v>0.00280100582146534</v>
       </c>
       <c r="J8">
-        <v>0.004914991802722144</v>
+        <v>0.00280100582146534</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.7820291201924</v>
+        <v>64.221457</v>
       </c>
       <c r="N8">
-        <v>63.7820291201924</v>
+        <v>192.664371</v>
       </c>
       <c r="O8">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="P8">
-        <v>0.8407542380561169</v>
+        <v>0.8366610301096816</v>
       </c>
       <c r="Q8">
-        <v>49.74672933497676</v>
+        <v>28.924509353859</v>
       </c>
       <c r="R8">
-        <v>49.74672933497676</v>
+        <v>260.320584184731</v>
       </c>
       <c r="S8">
-        <v>0.004132300188149717</v>
+        <v>0.002343492415930406</v>
       </c>
       <c r="T8">
-        <v>0.004132300188149717</v>
+        <v>0.002343492415930406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.779948992234675</v>
+        <v>0.450387</v>
       </c>
       <c r="H9">
-        <v>0.779948992234675</v>
+        <v>1.351161</v>
       </c>
       <c r="I9">
-        <v>0.004914991802722144</v>
+        <v>0.00280100582146534</v>
       </c>
       <c r="J9">
-        <v>0.004914991802722144</v>
+        <v>0.00280100582146534</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.2705059593928</v>
+        <v>10.582537</v>
       </c>
       <c r="N9">
-        <v>10.2705059593928</v>
+        <v>31.747611</v>
       </c>
       <c r="O9">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208897</v>
       </c>
       <c r="P9">
-        <v>0.1353825134046481</v>
+        <v>0.1378666371208896</v>
       </c>
       <c r="Q9">
-        <v>8.010470772768638</v>
+        <v>4.766237091819001</v>
       </c>
       <c r="R9">
-        <v>8.010470772768638</v>
+        <v>42.896133826371</v>
       </c>
       <c r="S9">
-        <v>0.000665403943615766</v>
+        <v>0.0003861652531614615</v>
       </c>
       <c r="T9">
-        <v>0.000665403943615766</v>
+        <v>0.0003861652531614615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.450387</v>
+      </c>
+      <c r="H10">
+        <v>1.351161</v>
+      </c>
+      <c r="I10">
+        <v>0.00280100582146534</v>
+      </c>
+      <c r="J10">
+        <v>0.00280100582146534</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.955236666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.86571</v>
+      </c>
+      <c r="O10">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="P10">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="Q10">
+        <v>0.8806131765900002</v>
+      </c>
+      <c r="R10">
+        <v>7.92551858931</v>
+      </c>
+      <c r="S10">
+        <v>7.134815237347202E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.134815237347202E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.779948992234675</v>
-      </c>
-      <c r="H10">
-        <v>0.779948992234675</v>
-      </c>
-      <c r="I10">
-        <v>0.004914991802722144</v>
-      </c>
-      <c r="J10">
-        <v>0.004914991802722144</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.81033451196268</v>
-      </c>
-      <c r="N10">
-        <v>1.81033451196268</v>
-      </c>
-      <c r="O10">
-        <v>0.023863248539235</v>
-      </c>
-      <c r="P10">
-        <v>0.023863248539235</v>
-      </c>
-      <c r="Q10">
-        <v>1.411968578212944</v>
-      </c>
-      <c r="R10">
-        <v>1.411968578212944</v>
-      </c>
-      <c r="S10">
-        <v>0.0001172876709566612</v>
-      </c>
-      <c r="T10">
-        <v>0.0001172876709566612</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9146986666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.744096</v>
+      </c>
+      <c r="I11">
+        <v>0.005688610661986064</v>
+      </c>
+      <c r="J11">
+        <v>0.005688610661986065</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.221457</v>
+      </c>
+      <c r="N11">
+        <v>192.664371</v>
+      </c>
+      <c r="O11">
+        <v>0.8366610301096816</v>
+      </c>
+      <c r="P11">
+        <v>0.8366610301096816</v>
+      </c>
+      <c r="Q11">
+        <v>58.74328108929067</v>
+      </c>
+      <c r="R11">
+        <v>528.689529803616</v>
+      </c>
+      <c r="S11">
+        <v>0.004759438856350179</v>
+      </c>
+      <c r="T11">
+        <v>0.00475943885635018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9146986666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.744096</v>
+      </c>
+      <c r="I12">
+        <v>0.005688610661986064</v>
+      </c>
+      <c r="J12">
+        <v>0.005688610661986065</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.582537</v>
+      </c>
+      <c r="N12">
+        <v>31.747611</v>
+      </c>
+      <c r="O12">
+        <v>0.1378666371208897</v>
+      </c>
+      <c r="P12">
+        <v>0.1378666371208896</v>
+      </c>
+      <c r="Q12">
+        <v>9.679832483850667</v>
+      </c>
+      <c r="R12">
+        <v>87.118492354656</v>
+      </c>
+      <c r="S12">
+        <v>0.0007842696218580567</v>
+      </c>
+      <c r="T12">
+        <v>0.0007842696218580567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9146986666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.744096</v>
+      </c>
+      <c r="I13">
+        <v>0.005688610661986064</v>
+      </c>
+      <c r="J13">
+        <v>0.005688610661986065</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.955236666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.86571</v>
+      </c>
+      <c r="O13">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="P13">
+        <v>0.02547233276942866</v>
+      </c>
+      <c r="Q13">
+        <v>1.788452372017778</v>
+      </c>
+      <c r="R13">
+        <v>16.09607134816</v>
+      </c>
+      <c r="S13">
+        <v>0.0001449021837778289</v>
+      </c>
+      <c r="T13">
+        <v>0.0001449021837778289</v>
       </c>
     </row>
   </sheetData>
